--- a/testdata/Book1.xlsx
+++ b/testdata/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="8472"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,81 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>conformpassword</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>14587@gmail.com</t>
-  </si>
-  <si>
-    <t>west 11 mile</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>12345admin</t>
-  </si>
-  <si>
-    <t>jane</t>
-  </si>
-  <si>
-    <t>125811@gmail.com</t>
-  </si>
-  <si>
-    <t>east 12 mile</t>
+    <t>county</t>
+  </si>
+  <si>
+    <t>nora</t>
+  </si>
+  <si>
+    <t>faraday</t>
+  </si>
+  <si>
+    <t>f 12</t>
+  </si>
+  <si>
+    <t>mi</t>
   </si>
   <si>
     <t>admin1</t>
   </si>
   <si>
-    <t>12345admin1</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>sweeney</t>
-  </si>
-  <si>
-    <t>14785456@gmail.com</t>
-  </si>
-  <si>
-    <t>14 mile east</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>naomi</t>
+  </si>
+  <si>
+    <t>e 23</t>
+  </si>
+  <si>
+    <t>ny</t>
   </si>
   <si>
     <t>admin2</t>
   </si>
   <si>
-    <t>12345admin2</t>
+    <t>matth</t>
+  </si>
+  <si>
+    <t>d 24</t>
+  </si>
+  <si>
+    <t>admin3</t>
   </si>
 </sst>
 </file>
@@ -96,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,37 +98,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -156,7 +120,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +164,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -203,6 +182,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +205,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,120 +258,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,66 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +449,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,6 +501,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -537,36 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -582,15 +554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,148 +572,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,20 +1028,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1111111111111" defaultRowHeight="21" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="17.6666666666667" defaultRowHeight="23.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="17.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1114,11 +1069,11 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>147852369</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12345</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1126,8 +1081,8 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+      <c r="G2" s="1">
+        <v>1234</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -1140,11 +1095,11 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>147852369</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12346</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1152,42 +1107,40 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>1235</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>12347</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>144752366</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
+      <c r="G4" s="1">
+        <v>1236</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="14587@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="125811@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="14785456@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
